--- a/데이터 수집 파이프라인/평균이상영화.xlsx
+++ b/데이터 수집 파이프라인/평균이상영화.xlsx
@@ -558,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4597826</v>
+        <v>4597669</v>
       </c>
       <c r="C2">
         <v>22656</v>
       </c>
       <c r="D2">
-        <v>202.9407662429379</v>
+        <v>202.9338365112994</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -572,13 +572,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1397962</v>
+        <v>1367956</v>
       </c>
       <c r="C3">
-        <v>8489</v>
+        <v>8395</v>
       </c>
       <c r="D3">
-        <v>164.6792319472258</v>
+        <v>162.9488981536629</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -600,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7448591</v>
+        <v>7448579</v>
       </c>
       <c r="C5">
         <v>57863</v>
       </c>
       <c r="D5">
-        <v>128.7280472841021</v>
+        <v>128.7278398976894</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -726,13 +726,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1493203</v>
+        <v>1493199</v>
       </c>
       <c r="C14">
         <v>19211</v>
       </c>
       <c r="D14">
-        <v>77.72645879964604</v>
+        <v>77.726250585602</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1774163</v>
+        <v>1774161</v>
       </c>
       <c r="C17">
         <v>27562</v>
       </c>
       <c r="D17">
-        <v>64.3698933313983</v>
+        <v>64.36982076772368</v>
       </c>
     </row>
     <row r="18" spans="1:4">
